--- a/shop/admin/data/csv_goods.xlsx
+++ b/shop/admin/data/csv_goods.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="27495" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t>상품번호(자동)</t>
   </si>
@@ -479,12 +484,95 @@
     <t>10,5,0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>goods_consumer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘표시(신상품1 세일128 신상이고 세일이면 129)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원소비자가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품가격만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -513,6 +601,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,6 +646,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,6 +659,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,7 +745,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -866,13 +968,14 @@
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
     <col min="18" max="18" width="41.42578125" customWidth="1"/>
     <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.85546875" customWidth="1"/>
-    <col min="26" max="26" width="70.5703125" customWidth="1"/>
-    <col min="27" max="27" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.85546875" customWidth="1"/>
+    <col min="27" max="27" width="70.5703125" customWidth="1"/>
+    <col min="28" max="28" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,23 +1042,29 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="AC1" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1023,22 +1132,28 @@
         <v>46</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="AC2" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>50</v>
@@ -1103,23 +1218,29 @@
       <c r="V3" s="1">
         <v>10010</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>14</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>63</v>
@@ -1182,23 +1303,29 @@
       <c r="V4" s="1">
         <v>45000</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>10</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="AC4">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>76</v>
@@ -1261,17 +1388,23 @@
       <c r="V5" s="1">
         <v>103800</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="AC5">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>83</v>
@@ -1334,15 +1467,18 @@
       <c r="V6" s="1">
         <v>93000</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>92</v>
@@ -1399,15 +1535,18 @@
       <c r="V7" s="1">
         <v>104000</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>97</v>
@@ -1464,15 +1603,18 @@
       <c r="V8" s="1">
         <v>104000</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>102</v>
@@ -1529,15 +1671,18 @@
       <c r="V9" s="1">
         <v>104000</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>107</v>
@@ -1594,15 +1739,18 @@
       <c r="V10" s="1">
         <v>11000</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>112</v>
@@ -1659,15 +1807,18 @@
       <c r="V11" s="1">
         <v>33000</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>117</v>
@@ -1724,13 +1875,14 @@
       <c r="V12" s="1">
         <v>71000</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
